--- a/Visualization Results/Visualization Skrip and Data/Uniform_Rollout.xlsx
+++ b/Visualization Results/Visualization Skrip and Data/Uniform_Rollout.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max Bernecker\IDiNA\Visualization Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max Bernecker\IDiNA\Visualization Results\Visualization Skrip and Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315B5A6F-BDE7-42EB-A5EF-294E9F85F862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4C6780-8D1E-4E2F-889F-F145C4BCA912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -881,7 +881,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>8801</v>
       </c>
       <c r="C2">
         <v>0.1196</v>
@@ -917,7 +917,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>79.22</v>
+        <v>7046</v>
       </c>
       <c r="C3">
         <v>0.11382643699949498</v>
@@ -928,7 +928,7 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>63.5</v>
+        <v>5794</v>
       </c>
       <c r="C4">
         <v>0.10774393495691534</v>
@@ -939,7 +939,7 @@
         <v>30</v>
       </c>
       <c r="B5">
-        <v>50.25</v>
+        <v>4949</v>
       </c>
       <c r="C5">
         <v>0.10129685720692425</v>
@@ -950,7 +950,7 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>37.08</v>
+        <v>3919</v>
       </c>
       <c r="C6">
         <v>9.4410545173725158E-2</v>
@@ -961,7 +961,7 @@
         <v>50</v>
       </c>
       <c r="B7">
-        <v>25.96</v>
+        <v>2783</v>
       </c>
       <c r="C7">
         <v>8.6980738097581126E-2</v>
@@ -972,7 +972,7 @@
         <v>60</v>
       </c>
       <c r="B8">
-        <v>18.32</v>
+        <v>1990</v>
       </c>
       <c r="C8">
         <v>7.8853957161324512E-2</v>
@@ -983,7 +983,7 @@
         <v>70</v>
       </c>
       <c r="B9">
-        <v>12.49</v>
+        <v>1322</v>
       </c>
       <c r="C9">
         <v>6.9787135777304971E-2</v>
@@ -994,7 +994,7 @@
         <v>80</v>
       </c>
       <c r="B10">
-        <v>7.64</v>
+        <v>895</v>
       </c>
       <c r="C10">
         <v>5.9351007405098015E-2</v>
@@ -1005,7 +1005,7 @@
         <v>90</v>
       </c>
       <c r="B11">
-        <v>4.45</v>
+        <v>491</v>
       </c>
       <c r="C11">
         <v>4.6635178138396773E-2</v>
@@ -1016,7 +1016,7 @@
         <v>100</v>
       </c>
       <c r="B12">
-        <v>2.21</v>
+        <v>243</v>
       </c>
       <c r="C12">
         <v>2.8760000000000001E-2</v>
